--- a/sample_excel/today.xlsx
+++ b/sample_excel/today.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.137.47964"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>day</t>
   </si>
@@ -28,13 +28,16 @@
   <si>
     <t>check</t>
   </si>
+  <si>
+    <t>check_time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11.0"/>
       <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
@@ -157,12 +160,6 @@
       <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
       <scheme val="minor"/>
       <color theme="0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
       <i/>
@@ -403,7 +400,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -412,7 +408,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -421,7 +416,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -430,7 +424,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -445,7 +438,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -460,7 +452,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -475,7 +466,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -484,7 +474,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -495,7 +484,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -574,10 +562,10 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -586,10 +574,10 @@
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -598,10 +586,10 @@
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -610,10 +598,10 @@
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -622,10 +610,10 @@
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -634,16 +622,16 @@
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -992,15 +980,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.500000">
+    <row r="1" spans="1:4" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1010,6 +998,9 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
